--- a/biology/Botanique/Arinarnoa/Arinarnoa.xlsx
+++ b/biology/Botanique/Arinarnoa/Arinarnoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arinarnoa est un cépage métis de France produisant des raisins noirs.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arinarnoa signifie littéralement en basque le « vin léger ». Arin étant la « légèreté, une chose agréable ou versatile » et arnoa se traduit par « le vin ». Ces deux mots ne se rassemblent pas dans l'écriture courante, l'auteur les a unis pour créer un nouveau nom.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'  arinarnoa est une obtention du basque Pierre Marcel Durquéty du Institut national de la recherche agronomique de Bordeaux. L'origine génétique a été vérifiée et il s'agit d'un croisement entre le tannat et le cabernet sauvignon réalisé en 1956 (source Plantgrape). Le cépage est recommandé ou autorisé dans la plupart des départements du Sud et de l’Ouest de la France et particulièrement dans la zone méditerranéenne. En France, il couvre 148 hectares (2004).
 Il est un peu cultivé en Suisse, Australie, Bulgarie, Chili, Liban et Espagne.
@@ -576,7 +592,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc, à plages roses.
 Jeunes feuilles duveteuse et bronzée, assez découpée.
@@ -608,7 +626,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive: 25 jours après le chasselas.
 </t>
@@ -639,7 +659,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est lâche, à pédoncule visible. Le cépage est moyennement vigoureux et s'il est conduit à taille Guyot double, la fertilité assez élevée et régulière. Il est assez résistant à la pourriture grise.
 Le vin rouge a une couleur intense et un arôme épicé ou herbacé bien prononcé. Il est assez fruité et il s'améliore avec un vieillissement.
